--- a/CashFlow/WY_cashflow.xlsx
+++ b/CashFlow/WY_cashflow.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>482000000.0</v>
+        <v>469000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>412000000.0</v>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-78000000.0</v>
+        <v>-198000000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>-141000000.0</v>
@@ -1013,10 +1013,8 @@
           <t>Income tax paid</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>223000000.0</v>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
@@ -1024,15 +1022,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>85000000.0</v>
+        <v>110000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-60000000.0</v>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>43000000.0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>-42000000.0</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1310,7 +1306,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-41000000.0</v>
+        <v>-28000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>-30000000.0</v>
@@ -3864,10 +3860,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>44000000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>33000000.0</v>
